--- a/TestAutomation/TestData/Data.xlsx
+++ b/TestAutomation/TestData/Data.xlsx
@@ -4,25 +4,49 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15810" windowHeight="6435"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15810" windowHeight="6435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TestcasePriority" sheetId="2" r:id="rId2"/>
+    <sheet name="TestData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>TOI</t>
   </si>
   <si>
     <t>General Election Of India</t>
+  </si>
+  <si>
+    <t>TestcaseId</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Data1</t>
+  </si>
+  <si>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -58,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,7 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -382,24 +407,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestAutomation/TestData/Data.xlsx
+++ b/TestAutomation/TestData/Data.xlsx
@@ -4,23 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15810" windowHeight="6435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15810" windowHeight="6435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="TestcasePriority" sheetId="2" r:id="rId2"/>
-    <sheet name="TestData" sheetId="3" r:id="rId3"/>
+    <sheet name="TC001" sheetId="3" r:id="rId3"/>
+    <sheet name="TC002" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>TOI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>General Election Of India</t>
   </si>
@@ -37,24 +34,74 @@
     <t>Data2</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Jaggu</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>Arnab</t>
+  </si>
+  <si>
+    <t>Jhantu</t>
+  </si>
+  <si>
+    <t>Sudip</t>
+  </si>
+  <si>
+    <t>Khastogi</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Shyam</t>
+  </si>
+  <si>
+    <t>Kapil</t>
+  </si>
+  <si>
+    <t>Allu</t>
+  </si>
+  <si>
+    <t>Ballu</t>
+  </si>
+  <si>
+    <t>Kashmir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -70,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,13 +125,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,9 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -392,12 +454,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -407,39 +469,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -450,27 +521,168 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
